--- a/biology/Botanique/Clos_Clementi/Clos_Clementi.xlsx
+++ b/biology/Botanique/Clos_Clementi/Clos_Clementi.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le Clos Clementi est un domaine viticole situé à Poggio-d'Oletta en Corse. Il est classé en AOC Patrimonio.
@@ -512,7 +524,9 @@
           <t>Histoire du domaine</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">L'appellation Clos Clementi a été créée en 2002 par Antoine et Jean Pierre Clementi mais le domaine se trouve sur un vignoble fondé en 1936 par leur grand-père Antoine Clementi, puis repris par leur père Édouard Clementi. À la mort de ce dernier, Jean Pierre et Antoine reprirent en main l'exploitation avec l'aide de leur autre grand-père, Pierre Louis Merlandi.
 </t>
@@ -543,9 +557,11 @@
           <t>Le terroir et son vignoble</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le vignoble couvre 15 hectares et est implanté sur un sol argilo-calcaire. L'âge moyen des vignes se situe entre 3 et 40 ans avec une densité de plantation de 3 300 pieds à l'hectare[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le vignoble couvre 15 hectares et est implanté sur un sol argilo-calcaire. L'âge moyen des vignes se situe entre 3 et 40 ans avec une densité de plantation de 3 300 pieds à l'hectare.
 </t>
         </is>
       </c>
@@ -574,7 +590,9 @@
           <t>Vinification</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Rouge Nielluciu 90 %, Grenache 10 %. Macération pendant 25 jours. Fermentation 12 jours à 26 - 30°. Fermentation Malo-lactique 5 jours. Élevage en cuve Inox-Béton
 Rosé : Niellucio 80 % Grenache 20 %. Pressurage direct. Fermentation thermorégulée 10 à 15 jours à 14 - 16°. Élevage en cuve inox
@@ -613,9 +631,11 @@
           <t>Millésimes</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Blanc 2005 cuvée Emma (4 étoiles au guide des vins)[2]</t>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Blanc 2005 cuvée Emma (4 étoiles au guide des vins)</t>
         </is>
       </c>
     </row>
@@ -643,9 +663,11 @@
           <t>Gastronomie</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ces vins sont traditionnellement proposés en rouge sur les gibiers et viandes, en rosé pour accompagner les charcuterie, grillades et viandes blanches, en blanc sur les fruits de mer[1].
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ces vins sont traditionnellement proposés en rouge sur les gibiers et viandes, en rosé pour accompagner les charcuterie, grillades et viandes blanches, en blanc sur les fruits de mer.
 </t>
         </is>
       </c>
